--- a/Code/mean_2.xlsx
+++ b/Code/mean_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>DE</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>EDA_FG</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>QPSO</t>
   </si>
 </sst>
 </file>
@@ -47,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -57,14 +63,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,83 +104,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="6.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>9.087677628146056e-28</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.0598180780537779e-17</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5.8125732006101681e-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0</v>
+        <v>3.7731727723229501e-20</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.0611216389836607e-17</v>
       </c>
       <c r="C3">
-        <v>0.021692907705359598</v>
+        <v>4.5870134516605669e-16</v>
       </c>
       <c r="D3">
         <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4.8520622048604061e-18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>1.5009845886855516e-09</v>
       </c>
       <c r="B4">
-        <v>2.552045957967108e-14</v>
+        <v>0.0007584425429752338</v>
       </c>
       <c r="C4">
-        <v>356.48284040006132</v>
+        <v>165.6250116555554</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.3788148293597738e-27</v>
+      </c>
+      <c r="E4">
+        <v>6.7953626760312096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>0.87440530941912276</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.35869855495053232</v>
       </c>
       <c r="C5">
-        <v>0.07171900331290762</v>
+        <v>0.42477111548361468</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.001367983177589172</v>
+      </c>
+      <c r="E5">
+        <v>0.00013458055697237385</v>
       </c>
     </row>
     <row r="6">
@@ -158,83 +204,101 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>42.095296047743034</v>
       </c>
       <c r="C6">
-        <v>0.60823044302128437</v>
+        <v>8.8875167235312915</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>307.31087517043466</v>
+      </c>
+      <c r="E6">
+        <v>930.16393349372493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1.0097419586828951e-28</v>
+        <v>66.490368245432208</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>100.62258107185009</v>
       </c>
       <c r="C7">
-        <v>4.0814690305594935e-06</v>
+        <v>21.660778441706587</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>67.540364313431482</v>
+      </c>
+      <c r="E7">
+        <v>5.1331594615358309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0</v>
+        <v>0.23787889010024199</v>
       </c>
       <c r="B8">
-        <v>0.00044376242004689814</v>
+        <v>0.25988051784945643</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.063044635414187089</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.084504488823115564</v>
+      </c>
+      <c r="E8">
+        <v>0.035360034391921119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0</v>
+        <v>11.460547492875737</v>
       </c>
       <c r="B9">
-        <v>1.6000000302740751</v>
+        <v>14.487943591354245</v>
       </c>
       <c r="C9">
-        <v>1.4293905121972121</v>
+        <v>19.289707182862564</v>
       </c>
       <c r="D9">
-        <v>13.5817438118974</v>
+        <v>17.836929140444568</v>
+      </c>
+      <c r="E9">
+        <v>16.988665784829848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0</v>
+        <v>0.069538034316587893</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.4965349832222623</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.406589718762842</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.9791385418925169</v>
+      </c>
+      <c r="E10">
+        <v>0.5971766244954515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0</v>
+        <v>0.52000321364377156</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.013788449818628</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.64291909391537416</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.0660998350084494</v>
+      </c>
+      <c r="E11">
+        <v>0.46532980243337674</v>
       </c>
     </row>
   </sheetData>
